--- a/biology/Botanique/Mutin_de_Ravenel/Mutin_de_Ravenel.xlsx
+++ b/biology/Botanique/Mutin_de_Ravenel/Mutin_de_Ravenel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutinus ravenelii
 Le Mutin de Ravenel, Mutinus ravenelii, est une espèce de champignons basidiomycètes de la famille des Phallaceae.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Mutinus ravenelii (Berk.) E. Fisch., 1888[1]. L'espèce a été initialement classée dans le genre Corynites sous le basionyme Corynites ravenelii Berk., 1853[1].
-Mutinus ravenelii a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Mutinus ravenelii (Berk.) E. Fisch., 1888. L'espèce a été initialement classée dans le genre Corynites sous le basionyme Corynites ravenelii Berk., 1853.
+Mutinus ravenelii a pour synonymes :
 Corynites ravenelii Berk., 1853
 Corynites ravenelli Berk. (1853), 1853
 Dictyophora ravenelii (Berk.) Burt, 1896
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pier Andrea Saccardo, Sylloge fungorum omnium hucusque cognitorum, vol. 7, 1888 (lire en ligne), p. 1-882</t>
         </is>
